--- a/test/DocumentFormat.OpenXml.Formulas.Tests/TestFiles/FormulaOracle.xlsx
+++ b/test/DocumentFormat.OpenXml.Formulas.Tests/TestFiles/FormulaOracle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704AE94-0B4F-DD4C-9CD1-E7D127742D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4471A71-82E6-654E-A685-A8E07473F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
